--- a/002_A3/PROYECTO/dataset_final.xlsx
+++ b/002_A3/PROYECTO/dataset_final.xlsx
@@ -485,13 +485,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>2892.339321313342</v>
+        <v>2880.31060022649</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>262.9399383012129</v>
+        <v>192.020706681766</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.3137216502131947</v>
+        <v>0.3726932151499024</v>
       </c>
     </row>
     <row r="3">
@@ -520,13 +520,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>817.1225208648729</v>
+        <v>4285.238783022086</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -539,15 +539,15 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>163.4245041729746</v>
+        <v>389.5671620929169</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.08863034284500601</v>
+        <v>0.5934773675042763</v>
       </c>
     </row>
     <row r="4">
@@ -555,34 +555,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6872.087056537604</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rosario</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>624.7351869579639</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>532.8702065331611</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Carlos</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Rosario</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>532.8702065331611</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0.05779851600092342</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>7354.467877740279</v>
+        <v>508.7309559575731</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -609,15 +609,15 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>367.7233938870139</v>
+        <v>508.7309559575731</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.7977126964470207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -625,13 +625,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1822.736043291284</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -644,15 +644,15 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>227.8420054114105</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2064956080666203</v>
       </c>
     </row>
     <row r="7">
@@ -660,13 +660,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>4694.074278009445</v>
+        <v>2713.030293697411</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -679,15 +679,15 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>426.7340252735859</v>
+        <v>678.2575734243527</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.5091493649686117</v>
+        <v>0.3464051520767338</v>
       </c>
     </row>
     <row r="8">
@@ -695,13 +695,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>7721.541131869668</v>
+        <v>2432.93796818045</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -714,15 +714,15 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>701.9582847154244</v>
+        <v>173.7812834414607</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.8375278129466673</v>
+        <v>0.3023887052380241</v>
       </c>
     </row>
     <row r="9">
@@ -730,13 +730,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>9219.444432183132</v>
+        <v>5074.562475132532</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>576.2152770114458</v>
+        <v>298.503675007796</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.7175194106705385</v>
       </c>
     </row>
     <row r="10">
@@ -765,13 +765,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>3738.145287408121</v>
+        <v>2771.991442518551</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -784,15 +784,15 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>415.3494763786801</v>
+        <v>145.8942864483448</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.4054631832650399</v>
+        <v>0.3556708835381188</v>
       </c>
     </row>
     <row r="11">
@@ -800,13 +800,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>1639.282092178598</v>
+        <v>1813.642105977643</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>109.2854728119066</v>
+        <v>139.5109312290494</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.1778070364474687</v>
+        <v>0.2050664978345507</v>
       </c>
     </row>
   </sheetData>

--- a/002_A3/PROYECTO/dataset_final.xlsx
+++ b/002_A3/PROYECTO/dataset_final.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
